--- a/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_马丁组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.2.11 20170214/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.2.10.4 20170213/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="580" yWindow="440" windowWidth="28220" windowHeight="13060"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.10.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.11 新特性|Fix Bug'!$A$1:$W$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.10.4 新特性|Fix Bug'!$A$1:$W$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -987,6 +987,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,30 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1492,13 +1492,13 @@
       <c r="Q1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="80" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="50" t="s">
@@ -1558,17 +1558,17 @@
       <c r="P2" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="87">
+      <c r="Q2" s="78">
         <v>42776</v>
       </c>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="T2" s="94"/>
-      <c r="U2" s="88"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="79"/>
       <c r="V2" s="66"/>
       <c r="W2" s="68"/>
       <c r="X2" s="69"/>
@@ -1590,11 +1590,11 @@
       <c r="N3" s="53"/>
       <c r="O3" s="53"/>
       <c r="P3" s="62"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="88"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="79"/>
       <c r="V3" s="66"/>
       <c r="W3" s="70"/>
       <c r="X3" s="69"/>
@@ -1616,11 +1616,11 @@
       <c r="N4" s="53"/>
       <c r="O4" s="53"/>
       <c r="P4" s="62"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="93"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="88"/>
+      <c r="U4" s="79"/>
       <c r="V4" s="66"/>
       <c r="W4" s="70"/>
       <c r="X4" s="69"/>
@@ -1642,11 +1642,11 @@
       <c r="N5" s="53"/>
       <c r="O5" s="53"/>
       <c r="P5" s="62"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="93"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="88"/>
+      <c r="U5" s="79"/>
       <c r="V5" s="66"/>
       <c r="W5" s="70"/>
       <c r="X5" s="69"/>
@@ -1669,9 +1669,9 @@
       <c r="O6" s="53"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="54"/>
-      <c r="R6" s="90"/>
+      <c r="R6" s="81"/>
       <c r="S6" s="77"/>
-      <c r="T6" s="91"/>
+      <c r="T6" s="82"/>
       <c r="U6" s="71"/>
       <c r="V6" s="66"/>
       <c r="W6" s="70"/>
@@ -5778,19 +5778,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5828,8 +5828,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5841,8 +5841,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5854,8 +5854,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5867,8 +5867,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5880,8 +5880,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5893,8 +5893,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5906,8 +5906,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5919,8 +5919,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5981,36 +5981,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6295,36 +6295,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6609,36 +6609,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6925,36 +6925,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.10.4 20170213/版本Bug和特性计划及评审表v5.2.10.4_马丁组.xlsx
@@ -297,7 +297,7 @@
     <t xml:space="preserve">sysconfig.zhima.zhima_sdk_appId=1001708
 sysconfig.zhima.zhima_sdk_privateKey=MIIEvgIBADANBgkqhkiG9w0BAQEFAASCBKgwggSkAgEAAoIBAQDMbf0SF0fgenwQKEUX0bPVv1VXkC/36JGvyA2ZZpMhIxLSbXmutS0Fbm3XUfWhHlz3O6b2BmRRaFDsImMUK5LivBesdtZOdSQLQ/+XSJOuRHy6B16JkoIshLkSJT28lnVnXZmgySxY+rEiwNPxxj20duv4FQPgYTDK/vcSdsPLISp0Xu7+ESen5/fo5JS2lXaXfgsQb+N3Lm9zOBXa2yJnDANSGQ1znwiKrwk2YSjxolrRtWUrHUksarmtcJSv841FyvQVajV6j8kM2CgkARjDKnZEGnzsOgKfVD85KJw6s5G4e3656EVnrjA0asah5BVCjdyDTBPMHM7M6QLqyZKJAgMBAAECggEBALuWqkUxi8lXXATPjydeTLF1k3B4ZSwOA7HT13bOg3BC6QCjaKeCpT94p96P3N/uJszPtlPIZcG2AZvNqjFWEsFwbCDcI6d3Io4b5awC81FUk0d5f6yp/j2vxMv71Hz7a9xgLZs3PzSfRnBnlZUknna9MadCUX5ScR21fS86QExiDNfxcYRE0viqUG2LiwfrtRvi3eMUZPXPcJmilNxbGOGF490ucgKcUQqi8kbqLRllgavf/p1lmyrS77Dw6kkQIM6YpLO4nR8wTHWoyi625UCAjE1VJUWVsdGH3BzZj/pKXmwkGFDiq7073JclTvOS1TqAxNse+h50h4BqFWKaaikCgYEA6EORivrbL88HhhEGVdiNxYBdwkACoLcgYx75kzltxU0vL2EFzwsuBbr+AzhVQeteEeeVp0vJtlyThORyxosuanLwimnv2AMcbzo52AoputurkxZtgziE5WCrO5A7s8avsEi6NcrXT19+Gilf9Cssq9I+vVu7C0s4TctsYQljJYsCgYEA4VI54Az1Jc58B2NMSIqMsG++8Gy0OzBq7EUtpqPG9Qa6mvAEpWlO90nDACTeBZLaC7Hd1au/zELGnoSW4JWilnirWgupJzE5HklHG3IMNAtzOFvoX46xr4xiNPodK0CxWpFqi3tPIDWizRfQNooEnqKtKtX9DOhSyo+D2CcYMrsCgYAYYf+Fd5BLFJDVojPoDzPS6AbvvYiJFrBvt3C74+uCKvgpISZa9fF+6IKCFAffQ7Y8avNq/KnQWyeha9ogvbvBsQ9PeI+VPb5ebt5jr61x0F3SsygL/oL1EZDoT9v0o4cOGpRx0TmJO50hYfaQy3eFEi1D871PEjZ29EQMa8/cwQKBgQCvUHsXiP11XSPD288O4j51SX0XNH1HUHThQTIz5lp3a7TluLrkuPtoDUxcYFMfoxNk5g/koK2rEInZ7PA37jWDPoCUn14N0I7QsdNR13sHQ6FyyJAVScGXBXOkJLdtX/ier2ZnAJqgRRtW2KB4zwqpI4n5OmaaFGnWkbPUCxcY4QKBgEay2X6WJ+d2QizMv6QOtSz1nmg5nsKAdLcQHO0ir02BlRp8yFBA8nnbJGyNUH0DHjB1dvDaGGna/Zd2u0TT5VRr4cKcvM8vYHwGabPcPLmjsvSxiyNmUvYMNHFtOZFmBp+jVx0upA5iy448e0Dn1GZN2ZvAk5cziTzx3xMerRM9
 sysconfig.zhima.zhima_sdk_publicKey=MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAshVdeYHvFwZdF08NUVYe+PqGA+QiUBLdf4w7XDMVOQDSXFmkk6zxRRlHZ97OS/NuajlayX2LTjDdPf/omkWXLqHoxHKlimeiLUvb/8KqkiOeExF1d6zlbOzcIoafxC6dzrFckVYLEWbiEGlSDgxOxU3Q8QuDbwosRCMRMDP6vZLrr6HKtAcyfQ5ZyDrAJd2hN4eeJF/6GbP9rdBf43KYaCyDH8FWciw4oCA3i17KXr81eRlNEGaDQ9DiROFGR2QDAVuzdD0NYBDBxUaTw/4B+I+Y1iqb0EU4PqAOaDjpwn0NOXoW+ARlKNDVQOXSHQI1PSxcBOW61AdLRU4GHSYfNQIDAQAB
-sysconfig.zhima.callbackUrl=redirect:http://app.api.mogoroom.com/mogoroom-partner/zmxy/processSDKCallBack
+sysconfig.zhima.callbackUrl=redirect:http://sh.mogoroom.com/mogoroom-partner/zmxy/processSDKCallBack
 </t>
   </si>
   <si>
@@ -333,18 +333,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -456,18 +450,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -483,6 +465,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -490,29 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,9 +493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +517,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +532,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,21 +570,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,9 +578,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,20 +611,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,7 +661,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +733,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,49 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,31 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,25 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,31 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,24 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1094,16 +1057,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1124,26 +1105,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,173 +1144,173 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,241 +1318,241 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="59" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="59" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="59" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="59" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="59" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="59" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="59" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="59" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="59" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="59" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,37 +1561,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="6" borderId="12" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="12" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="59" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="59" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="59" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="59" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,19 +1600,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="59" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="59" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6213,11 +6194,20 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>"能,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"重要,不重要"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 V$1:V$1048576">
       <formula1>"是,否"</formula1>
@@ -6225,17 +6215,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
-      <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
       <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
-      <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6897,9 +6878,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6908,6 +6886,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7255,14 +7236,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I8 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7275,8 +7256,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7614,14 +7595,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I8">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F7:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7931,14 +7912,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
